--- a/docs/schema/shema.xlsx
+++ b/docs/schema/shema.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <sheets>
-    <sheet name="Tables of example_app" sheetId="1" r:id="rId2310251118504881s8gl5b9j7shw"/>
-    <sheet name="failed_jobs" sheetId="2" r:id="rId2310251118504892jr2nn5abtrwg"/>
-    <sheet name="migrations" sheetId="3" r:id="rId231025111850490dzt68u8ng670"/>
-    <sheet name="password_reset_tokens" sheetId="4" r:id="rId2310251118504902al6z7k3ibab"/>
-    <sheet name="personal_access_tokens" sheetId="5" r:id="rId2310251118504912rvvpni39x9ia"/>
-    <sheet name="users" sheetId="6" r:id="rId231025111850492d1v99nqco64m"/>
+    <sheet name="Tables of example_app" sheetId="1" r:id="rId231025115056986digh509h0dpp"/>
+    <sheet name="failed_jobs" sheetId="2" r:id="rId2310251150569873o7jfkj8an7dt"/>
+    <sheet name="migrations" sheetId="3" r:id="rId231025115056988253t5t4ny6zsi"/>
+    <sheet name="password_reset_tokens" sheetId="4" r:id="rId2310251150569881c6bnga1xo2n0"/>
+    <sheet name="personal_access_tokens" sheetId="5" r:id="rId23102511505698918jdvh130o83b"/>
+    <sheet name="user_profiles" sheetId="6" r:id="rId231025115056990116i8m9bwf3ux"/>
+    <sheet name="users" sheetId="7" r:id="rId23102511505699310u7b7z2yjc9b"/>
   </sheets>
 </workbook>
 </file>
@@ -69,6 +70,15 @@
     <t>BASE TABLE</t>
   </si>
   <si>
+    <t>user_profiles</t>
+  </si>
+  <si>
+    <t>ユーザープロフィール</t>
+  </si>
+  <si>
+    <t>BASE TABLE</t>
+  </si>
+  <si>
     <t>users</t>
   </si>
   <si>
@@ -930,12 +940,192 @@
     <t>UNIQUE KEY personal_access_tokens_token_unique (token) USING BTREE</t>
   </si>
   <si>
+    <t>user_profiles</t>
+  </si>
+  <si>
+    <t>ユーザープロフィール</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>Extra Definition</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>bigint unsigned</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ユーザープロフィールID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>bigint unsigned</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>users</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (id)</t>
+  </si>
+  <si>
+    <t>user_profiles_user_id_foreign</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (user_id) REFERENCES users (id)</t>
+  </si>
+  <si>
+    <t>Indexes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>user_profiles_user_id_foreign</t>
+  </si>
+  <si>
+    <t>KEY user_profiles_user_id_foreign (user_id) USING BTREE</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (id) USING BTREE</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Columns</t>
   </si>
   <si>
@@ -978,7 +1168,7 @@
     <t>auto_increment</t>
   </si>
   <si>
-    <t/>
+    <t>user_profiles</t>
   </si>
   <si>
     <t/>
@@ -1212,6 +1402,57 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts>
     <font/>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
     <font>
       <b/>
     </font>
@@ -1493,6 +1734,360 @@
   </fills>
   <borders>
     <border/>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -3775,20 +4370,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
@@ -3841,37 +4436,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1"/>
@@ -3892,31 +4487,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1"/>
@@ -3934,32 +4529,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="179" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0" applyBorder="1"/>
@@ -4036,39 +4631,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="270" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="271" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="274" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="275" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="272" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="273" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="274" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="275" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="276" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="276" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="277" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="278" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="280" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="281" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="282" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="282" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="283" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="284" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="285" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="286" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="287" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="288" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="291" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="292" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="289" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="290" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="291" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="292" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="293" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="294" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="295" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="296" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="298" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="299" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="293" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="294" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="295" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="296" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="297" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="298" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="299" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="300" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="303" xfId="0" applyBorder="1"/>
@@ -4101,51 +4696,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="330" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="331" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="332" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="334" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="333" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="334" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="335" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="336" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="338" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="339" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="340" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="343" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="342" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="343" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="344" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="345" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="346" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="347" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="348" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="350" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="351" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="352" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="354" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="355" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="348" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="349" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="350" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="351" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="352" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="353" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="354" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="355" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="356" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="357" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="358" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="359" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="360" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="361" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="362" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="363" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="361" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="362" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="363" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="364" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="366" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="367" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="368" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="370" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="371" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="370" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="371" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="372" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="373" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="374" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="375" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="376" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="378" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="379" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="380" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="382" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="383" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="384" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="385" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="386" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="387" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="388" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="389" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="390" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="391" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="392" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="394" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="395" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="396" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="398" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="399" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="400" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="401" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="402" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="403" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="404" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="406" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="407" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="408" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="410" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="411" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="412" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="413" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="414" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="415" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="416" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="417" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="418" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="419" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="420" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="421" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="422" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="423" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="424" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="426" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="427" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="428" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="429" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="430" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="431" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="432" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="434" xfId="0" applyBorder="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4537,13 +5195,27 @@
         <v>18</v>
       </c>
       <c r="B9" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s" s="25">
         <v>19</v>
       </c>
       <c r="D9" t="s" s="26">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="27">
+        <v>21</v>
+      </c>
+      <c r="B10" s="28">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="29">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="30">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4567,293 +5239,293 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="27">
-        <v>21</v>
+      <c r="A1" t="s" s="31">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="28">
-        <v>23</v>
+      <c r="A4" t="s" s="32">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="29">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s" s="30">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s" s="32">
+      <c r="A5" t="s" s="33">
         <v>27</v>
       </c>
-      <c r="E5" t="s" s="33">
+      <c r="B5" t="s" s="34">
         <v>28</v>
       </c>
-      <c r="F5" t="s" s="34">
+      <c r="C5" t="s" s="35">
         <v>29</v>
       </c>
-      <c r="G5" t="s" s="35">
+      <c r="D5" t="s" s="36">
         <v>30</v>
       </c>
-      <c r="H5" t="s" s="36">
+      <c r="E5" t="s" s="37">
         <v>31</v>
       </c>
+      <c r="F5" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="40">
+        <v>34</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="37">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s" s="38">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s" s="39">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s" s="40">
+      <c r="A6" t="s" s="41">
         <v>35</v>
       </c>
-      <c r="E6" t="s" s="41">
+      <c r="B6" t="s" s="42">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="42">
+      <c r="C6" t="s" s="43">
         <v>37</v>
       </c>
-      <c r="G6" t="s" s="43">
+      <c r="D6" t="s" s="44">
         <v>38</v>
       </c>
-      <c r="H6" t="s" s="44">
+      <c r="E6" t="s" s="45">
         <v>39</v>
       </c>
+      <c r="F6" t="s" s="46">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s" s="47">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s" s="48">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="45">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s" s="46">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s" s="47">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s" s="48">
+      <c r="A7" t="s" s="49">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="49">
+      <c r="B7" t="s" s="50">
         <v>44</v>
       </c>
-      <c r="F7" t="s" s="50">
+      <c r="C7" t="s" s="51">
         <v>45</v>
       </c>
-      <c r="G7" t="s" s="51">
+      <c r="D7" t="s" s="52">
         <v>46</v>
       </c>
-      <c r="H7" t="s" s="52">
+      <c r="E7" t="s" s="53">
         <v>47</v>
       </c>
+      <c r="F7" t="s" s="54">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s" s="55">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s" s="56">
+        <v>50</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="53">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s" s="54">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s" s="55">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s" s="56">
+      <c r="A8" t="s" s="57">
         <v>51</v>
       </c>
-      <c r="E8" t="s" s="57">
+      <c r="B8" t="s" s="58">
         <v>52</v>
       </c>
-      <c r="F8" t="s" s="58">
+      <c r="C8" t="s" s="59">
         <v>53</v>
       </c>
-      <c r="G8" t="s" s="59">
+      <c r="D8" t="s" s="60">
         <v>54</v>
       </c>
-      <c r="H8" t="s" s="60">
+      <c r="E8" t="s" s="61">
         <v>55</v>
       </c>
+      <c r="F8" t="s" s="62">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s" s="63">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s" s="64">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="61">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s" s="62">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s" s="63">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s" s="64">
+      <c r="A9" t="s" s="65">
         <v>59</v>
       </c>
-      <c r="E9" t="s" s="65">
+      <c r="B9" t="s" s="66">
         <v>60</v>
       </c>
-      <c r="F9" t="s" s="66">
+      <c r="C9" t="s" s="67">
         <v>61</v>
       </c>
-      <c r="G9" t="s" s="67">
+      <c r="D9" t="s" s="68">
         <v>62</v>
       </c>
-      <c r="H9" t="s" s="68">
+      <c r="E9" t="s" s="69">
         <v>63</v>
       </c>
+      <c r="F9" t="s" s="70">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s" s="71">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s" s="72">
+        <v>66</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="69">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s" s="70">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s" s="71">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s" s="72">
+      <c r="A10" t="s" s="73">
         <v>67</v>
       </c>
-      <c r="E10" t="s" s="73">
+      <c r="B10" t="s" s="74">
         <v>68</v>
       </c>
-      <c r="F10" t="s" s="74">
+      <c r="C10" t="s" s="75">
         <v>69</v>
       </c>
-      <c r="G10" t="s" s="75">
+      <c r="D10" t="s" s="76">
         <v>70</v>
       </c>
-      <c r="H10" t="s" s="76">
+      <c r="E10" t="s" s="77">
         <v>71</v>
       </c>
+      <c r="F10" t="s" s="78">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s" s="79">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="80">
+        <v>74</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="77">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s" s="78">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s" s="79">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s" s="80">
+      <c r="A11" t="s" s="81">
         <v>75</v>
       </c>
-      <c r="E11" t="s" s="81">
+      <c r="B11" t="s" s="82">
         <v>76</v>
       </c>
-      <c r="F11" t="s" s="82">
+      <c r="C11" t="s" s="83">
         <v>77</v>
       </c>
-      <c r="G11" t="s" s="83">
+      <c r="D11" t="s" s="84">
         <v>78</v>
       </c>
-      <c r="H11" t="s" s="84">
+      <c r="E11" t="s" s="85">
         <v>79</v>
       </c>
+      <c r="F11" t="s" s="86">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s" s="87">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s" s="88">
+        <v>82</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="85">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s" s="86">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s" s="87">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s" s="88">
+      <c r="A12" t="s" s="89">
         <v>83</v>
       </c>
-      <c r="E12" t="s" s="89">
+      <c r="B12" t="s" s="90">
         <v>84</v>
       </c>
-      <c r="F12" t="s" s="90">
+      <c r="C12" t="s" s="91">
         <v>85</v>
       </c>
-      <c r="G12" t="s" s="91">
+      <c r="D12" t="s" s="92">
         <v>86</v>
       </c>
-      <c r="H12" t="s" s="92">
+      <c r="E12" t="s" s="93">
         <v>87</v>
       </c>
+      <c r="F12" t="s" s="94">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s" s="95">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s" s="96">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="93">
-        <v>88</v>
+      <c r="A14" t="s" s="97">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="94">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s" s="95">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s" s="96">
-        <v>91</v>
+      <c r="A15" t="s" s="98">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s" s="99">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s" s="100">
+        <v>94</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="97">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s" s="98">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s" s="99">
-        <v>94</v>
+      <c r="A16" t="s" s="101">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s" s="102">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s" s="103">
+        <v>97</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="100">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s" s="101">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s" s="102">
-        <v>97</v>
+      <c r="A17" t="s" s="104">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s" s="105">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s" s="106">
+        <v>100</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="103">
-        <v>98</v>
+      <c r="A19" t="s" s="107">
+        <v>101</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="104">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s" s="105">
-        <v>100</v>
+      <c r="A20" t="s" s="108">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s" s="109">
+        <v>103</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="106">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s" s="107">
-        <v>102</v>
+      <c r="A21" t="s" s="110">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s" s="111">
+        <v>105</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="108">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s" s="109">
-        <v>104</v>
+      <c r="A22" t="s" s="112">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s" s="113">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4877,170 +5549,170 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="110">
-        <v>105</v>
+      <c r="A1" t="s" s="114">
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="111">
-        <v>107</v>
+      <c r="A4" t="s" s="115">
+        <v>110</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="112">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s" s="113">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s" s="114">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s" s="115">
+      <c r="A5" t="s" s="116">
         <v>111</v>
       </c>
-      <c r="E5" t="s" s="116">
+      <c r="B5" t="s" s="117">
         <v>112</v>
       </c>
-      <c r="F5" t="s" s="117">
+      <c r="C5" t="s" s="118">
         <v>113</v>
       </c>
-      <c r="G5" t="s" s="118">
+      <c r="D5" t="s" s="119">
         <v>114</v>
       </c>
-      <c r="H5" t="s" s="119">
+      <c r="E5" t="s" s="120">
         <v>115</v>
       </c>
+      <c r="F5" t="s" s="121">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s" s="122">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s" s="123">
+        <v>118</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="120">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s" s="121">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s" s="122">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s" s="123">
+      <c r="A6" t="s" s="124">
         <v>119</v>
       </c>
-      <c r="E6" t="s" s="124">
+      <c r="B6" t="s" s="125">
         <v>120</v>
       </c>
-      <c r="F6" t="s" s="125">
+      <c r="C6" t="s" s="126">
         <v>121</v>
       </c>
-      <c r="G6" t="s" s="126">
+      <c r="D6" t="s" s="127">
         <v>122</v>
       </c>
-      <c r="H6" t="s" s="127">
+      <c r="E6" t="s" s="128">
         <v>123</v>
       </c>
+      <c r="F6" t="s" s="129">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s" s="130">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s" s="131">
+        <v>126</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="128">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s" s="129">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s" s="130">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s" s="131">
+      <c r="A7" t="s" s="132">
         <v>127</v>
       </c>
-      <c r="E7" t="s" s="132">
+      <c r="B7" t="s" s="133">
         <v>128</v>
       </c>
-      <c r="F7" t="s" s="133">
+      <c r="C7" t="s" s="134">
         <v>129</v>
       </c>
-      <c r="G7" t="s" s="134">
+      <c r="D7" t="s" s="135">
         <v>130</v>
       </c>
-      <c r="H7" t="s" s="135">
+      <c r="E7" t="s" s="136">
         <v>131</v>
       </c>
+      <c r="F7" t="s" s="137">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s" s="138">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s" s="139">
+        <v>134</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="136">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s" s="137">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s" s="138">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s" s="139">
+      <c r="A8" t="s" s="140">
         <v>135</v>
       </c>
-      <c r="E8" t="s" s="140">
+      <c r="B8" t="s" s="141">
         <v>136</v>
       </c>
-      <c r="F8" t="s" s="141">
+      <c r="C8" t="s" s="142">
         <v>137</v>
       </c>
-      <c r="G8" t="s" s="142">
+      <c r="D8" t="s" s="143">
         <v>138</v>
       </c>
-      <c r="H8" t="s" s="143">
+      <c r="E8" t="s" s="144">
         <v>139</v>
       </c>
+      <c r="F8" t="s" s="145">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s" s="146">
+        <v>141</v>
+      </c>
+      <c r="H8" t="s" s="147">
+        <v>142</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="144">
-        <v>140</v>
+      <c r="A10" t="s" s="148">
+        <v>143</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="145">
-        <v>141</v>
-      </c>
-      <c r="B11" t="s" s="146">
-        <v>142</v>
-      </c>
-      <c r="C11" t="s" s="147">
-        <v>143</v>
+      <c r="A11" t="s" s="149">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s" s="150">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s" s="151">
+        <v>146</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="148">
-        <v>144</v>
-      </c>
-      <c r="B12" t="s" s="149">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s" s="150">
-        <v>146</v>
+      <c r="A12" t="s" s="152">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s" s="153">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s" s="154">
+        <v>149</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="151">
-        <v>147</v>
+      <c r="A14" t="s" s="155">
+        <v>150</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="152">
-        <v>148</v>
-      </c>
-      <c r="B15" t="s" s="153">
-        <v>149</v>
+      <c r="A15" t="s" s="156">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s" s="157">
+        <v>152</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="154">
-        <v>150</v>
-      </c>
-      <c r="B16" t="s" s="155">
-        <v>151</v>
+      <c r="A16" t="s" s="158">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s" s="159">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5063,158 +5735,158 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="156">
-        <v>152</v>
+      <c r="A1" t="s" s="160">
+        <v>155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="157">
-        <v>154</v>
+      <c r="A4" t="s" s="161">
+        <v>157</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="158">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s" s="159">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s" s="160">
-        <v>157</v>
-      </c>
-      <c r="D5" t="s" s="161">
+      <c r="A5" t="s" s="162">
         <v>158</v>
       </c>
-      <c r="E5" t="s" s="162">
+      <c r="B5" t="s" s="163">
         <v>159</v>
       </c>
-      <c r="F5" t="s" s="163">
+      <c r="C5" t="s" s="164">
         <v>160</v>
       </c>
-      <c r="G5" t="s" s="164">
+      <c r="D5" t="s" s="165">
         <v>161</v>
       </c>
+      <c r="E5" t="s" s="166">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s" s="167">
+        <v>163</v>
+      </c>
+      <c r="G5" t="s" s="168">
+        <v>164</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="165">
-        <v>162</v>
-      </c>
-      <c r="B6" t="s" s="166">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s" s="167">
-        <v>164</v>
-      </c>
-      <c r="D6" t="s" s="168">
+      <c r="A6" t="s" s="169">
         <v>165</v>
       </c>
-      <c r="E6" t="s" s="169">
+      <c r="B6" t="s" s="170">
         <v>166</v>
       </c>
-      <c r="F6" t="s" s="170">
+      <c r="C6" t="s" s="171">
         <v>167</v>
       </c>
-      <c r="G6" t="s" s="171">
+      <c r="D6" t="s" s="172">
         <v>168</v>
       </c>
+      <c r="E6" t="s" s="173">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s" s="174">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s" s="175">
+        <v>171</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="172">
-        <v>169</v>
-      </c>
-      <c r="B7" t="s" s="173">
-        <v>170</v>
-      </c>
-      <c r="C7" t="s" s="174">
-        <v>171</v>
-      </c>
-      <c r="D7" t="s" s="175">
+      <c r="A7" t="s" s="176">
         <v>172</v>
       </c>
-      <c r="E7" t="s" s="176">
+      <c r="B7" t="s" s="177">
         <v>173</v>
       </c>
-      <c r="F7" t="s" s="177">
+      <c r="C7" t="s" s="178">
         <v>174</v>
       </c>
-      <c r="G7" t="s" s="178">
+      <c r="D7" t="s" s="179">
         <v>175</v>
       </c>
+      <c r="E7" t="s" s="180">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s" s="181">
+        <v>177</v>
+      </c>
+      <c r="G7" t="s" s="182">
+        <v>178</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="179">
-        <v>176</v>
-      </c>
-      <c r="B8" t="s" s="180">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s" s="181">
-        <v>178</v>
-      </c>
-      <c r="D8" t="s" s="182">
+      <c r="A8" t="s" s="183">
         <v>179</v>
       </c>
-      <c r="E8" t="s" s="183">
+      <c r="B8" t="s" s="184">
         <v>180</v>
       </c>
-      <c r="F8" t="s" s="184">
+      <c r="C8" t="s" s="185">
         <v>181</v>
       </c>
-      <c r="G8" t="s" s="185">
+      <c r="D8" t="s" s="186">
         <v>182</v>
       </c>
+      <c r="E8" t="s" s="187">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s" s="188">
+        <v>184</v>
+      </c>
+      <c r="G8" t="s" s="189">
+        <v>185</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="186">
-        <v>183</v>
+      <c r="A10" t="s" s="190">
+        <v>186</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="187">
-        <v>184</v>
-      </c>
-      <c r="B11" t="s" s="188">
-        <v>185</v>
-      </c>
-      <c r="C11" t="s" s="189">
-        <v>186</v>
+      <c r="A11" t="s" s="191">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s" s="192">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s" s="193">
+        <v>189</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="190">
-        <v>187</v>
-      </c>
-      <c r="B12" t="s" s="191">
-        <v>188</v>
-      </c>
-      <c r="C12" t="s" s="192">
-        <v>189</v>
+      <c r="A12" t="s" s="194">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s" s="195">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s" s="196">
+        <v>192</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="193">
-        <v>190</v>
+      <c r="A14" t="s" s="197">
+        <v>193</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="194">
-        <v>191</v>
-      </c>
-      <c r="B15" t="s" s="195">
-        <v>192</v>
+      <c r="A15" t="s" s="198">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s" s="199">
+        <v>195</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="196">
-        <v>193</v>
-      </c>
-      <c r="B16" t="s" s="197">
-        <v>194</v>
+      <c r="A16" t="s" s="200">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s" s="201">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5238,379 +5910,379 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="198">
-        <v>195</v>
+      <c r="A1" t="s" s="202">
+        <v>198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="199">
-        <v>197</v>
+      <c r="A4" t="s" s="203">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="200">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s" s="201">
-        <v>199</v>
-      </c>
-      <c r="C5" t="s" s="202">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s" s="203">
+      <c r="A5" t="s" s="204">
         <v>201</v>
       </c>
-      <c r="E5" t="s" s="204">
+      <c r="B5" t="s" s="205">
         <v>202</v>
       </c>
-      <c r="F5" t="s" s="205">
+      <c r="C5" t="s" s="206">
         <v>203</v>
       </c>
-      <c r="G5" t="s" s="206">
+      <c r="D5" t="s" s="207">
         <v>204</v>
       </c>
-      <c r="H5" t="s" s="207">
+      <c r="E5" t="s" s="208">
         <v>205</v>
       </c>
+      <c r="F5" t="s" s="209">
+        <v>206</v>
+      </c>
+      <c r="G5" t="s" s="210">
+        <v>207</v>
+      </c>
+      <c r="H5" t="s" s="211">
+        <v>208</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="208">
-        <v>206</v>
-      </c>
-      <c r="B6" t="s" s="209">
-        <v>207</v>
-      </c>
-      <c r="C6" t="s" s="210">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s" s="211">
+      <c r="A6" t="s" s="212">
         <v>209</v>
       </c>
-      <c r="E6" t="s" s="212">
+      <c r="B6" t="s" s="213">
         <v>210</v>
       </c>
-      <c r="F6" t="s" s="213">
+      <c r="C6" t="s" s="214">
         <v>211</v>
       </c>
-      <c r="G6" t="s" s="214">
+      <c r="D6" t="s" s="215">
         <v>212</v>
       </c>
-      <c r="H6" t="s" s="215">
+      <c r="E6" t="s" s="216">
         <v>213</v>
       </c>
+      <c r="F6" t="s" s="217">
+        <v>214</v>
+      </c>
+      <c r="G6" t="s" s="218">
+        <v>215</v>
+      </c>
+      <c r="H6" t="s" s="219">
+        <v>216</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="216">
-        <v>214</v>
-      </c>
-      <c r="B7" t="s" s="217">
-        <v>215</v>
-      </c>
-      <c r="C7" t="s" s="218">
-        <v>216</v>
-      </c>
-      <c r="D7" t="s" s="219">
+      <c r="A7" t="s" s="220">
         <v>217</v>
       </c>
-      <c r="E7" t="s" s="220">
+      <c r="B7" t="s" s="221">
         <v>218</v>
       </c>
-      <c r="F7" t="s" s="221">
+      <c r="C7" t="s" s="222">
         <v>219</v>
       </c>
-      <c r="G7" t="s" s="222">
+      <c r="D7" t="s" s="223">
         <v>220</v>
       </c>
-      <c r="H7" t="s" s="223">
+      <c r="E7" t="s" s="224">
         <v>221</v>
       </c>
+      <c r="F7" t="s" s="225">
+        <v>222</v>
+      </c>
+      <c r="G7" t="s" s="226">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s" s="227">
+        <v>224</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="224">
-        <v>222</v>
-      </c>
-      <c r="B8" t="s" s="225">
-        <v>223</v>
-      </c>
-      <c r="C8" t="s" s="226">
-        <v>224</v>
-      </c>
-      <c r="D8" t="s" s="227">
+      <c r="A8" t="s" s="228">
         <v>225</v>
       </c>
-      <c r="E8" t="s" s="228">
+      <c r="B8" t="s" s="229">
         <v>226</v>
       </c>
-      <c r="F8" t="s" s="229">
+      <c r="C8" t="s" s="230">
         <v>227</v>
       </c>
-      <c r="G8" t="s" s="230">
+      <c r="D8" t="s" s="231">
         <v>228</v>
       </c>
-      <c r="H8" t="s" s="231">
+      <c r="E8" t="s" s="232">
         <v>229</v>
       </c>
+      <c r="F8" t="s" s="233">
+        <v>230</v>
+      </c>
+      <c r="G8" t="s" s="234">
+        <v>231</v>
+      </c>
+      <c r="H8" t="s" s="235">
+        <v>232</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="232">
-        <v>230</v>
-      </c>
-      <c r="B9" t="s" s="233">
-        <v>231</v>
-      </c>
-      <c r="C9" t="s" s="234">
-        <v>232</v>
-      </c>
-      <c r="D9" t="s" s="235">
+      <c r="A9" t="s" s="236">
         <v>233</v>
       </c>
-      <c r="E9" t="s" s="236">
+      <c r="B9" t="s" s="237">
         <v>234</v>
       </c>
-      <c r="F9" t="s" s="237">
+      <c r="C9" t="s" s="238">
         <v>235</v>
       </c>
-      <c r="G9" t="s" s="238">
+      <c r="D9" t="s" s="239">
         <v>236</v>
       </c>
-      <c r="H9" t="s" s="239">
+      <c r="E9" t="s" s="240">
         <v>237</v>
       </c>
+      <c r="F9" t="s" s="241">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s" s="242">
+        <v>239</v>
+      </c>
+      <c r="H9" t="s" s="243">
+        <v>240</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="240">
-        <v>238</v>
-      </c>
-      <c r="B10" t="s" s="241">
-        <v>239</v>
-      </c>
-      <c r="C10" t="s" s="242">
-        <v>240</v>
-      </c>
-      <c r="D10" t="s" s="243">
+      <c r="A10" t="s" s="244">
         <v>241</v>
       </c>
-      <c r="E10" t="s" s="244">
+      <c r="B10" t="s" s="245">
         <v>242</v>
       </c>
-      <c r="F10" t="s" s="245">
+      <c r="C10" t="s" s="246">
         <v>243</v>
       </c>
-      <c r="G10" t="s" s="246">
+      <c r="D10" t="s" s="247">
         <v>244</v>
       </c>
-      <c r="H10" t="s" s="247">
+      <c r="E10" t="s" s="248">
         <v>245</v>
       </c>
+      <c r="F10" t="s" s="249">
+        <v>246</v>
+      </c>
+      <c r="G10" t="s" s="250">
+        <v>247</v>
+      </c>
+      <c r="H10" t="s" s="251">
+        <v>248</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="248">
-        <v>246</v>
-      </c>
-      <c r="B11" t="s" s="249">
-        <v>247</v>
-      </c>
-      <c r="C11" t="s" s="250">
-        <v>248</v>
-      </c>
-      <c r="D11" t="s" s="251">
+      <c r="A11" t="s" s="252">
         <v>249</v>
       </c>
-      <c r="E11" t="s" s="252">
+      <c r="B11" t="s" s="253">
         <v>250</v>
       </c>
-      <c r="F11" t="s" s="253">
+      <c r="C11" t="s" s="254">
         <v>251</v>
       </c>
-      <c r="G11" t="s" s="254">
+      <c r="D11" t="s" s="255">
         <v>252</v>
       </c>
-      <c r="H11" t="s" s="255">
+      <c r="E11" t="s" s="256">
         <v>253</v>
       </c>
+      <c r="F11" t="s" s="257">
+        <v>254</v>
+      </c>
+      <c r="G11" t="s" s="258">
+        <v>255</v>
+      </c>
+      <c r="H11" t="s" s="259">
+        <v>256</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="256">
-        <v>254</v>
-      </c>
-      <c r="B12" t="s" s="257">
-        <v>255</v>
-      </c>
-      <c r="C12" t="s" s="258">
-        <v>256</v>
-      </c>
-      <c r="D12" t="s" s="259">
+      <c r="A12" t="s" s="260">
         <v>257</v>
       </c>
-      <c r="E12" t="s" s="260">
+      <c r="B12" t="s" s="261">
         <v>258</v>
       </c>
-      <c r="F12" t="s" s="261">
+      <c r="C12" t="s" s="262">
         <v>259</v>
       </c>
-      <c r="G12" t="s" s="262">
+      <c r="D12" t="s" s="263">
         <v>260</v>
       </c>
-      <c r="H12" t="s" s="263">
+      <c r="E12" t="s" s="264">
         <v>261</v>
       </c>
+      <c r="F12" t="s" s="265">
+        <v>262</v>
+      </c>
+      <c r="G12" t="s" s="266">
+        <v>263</v>
+      </c>
+      <c r="H12" t="s" s="267">
+        <v>264</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="264">
-        <v>262</v>
-      </c>
-      <c r="B13" t="s" s="265">
-        <v>263</v>
-      </c>
-      <c r="C13" t="s" s="266">
-        <v>264</v>
-      </c>
-      <c r="D13" t="s" s="267">
+      <c r="A13" t="s" s="268">
         <v>265</v>
       </c>
-      <c r="E13" t="s" s="268">
+      <c r="B13" t="s" s="269">
         <v>266</v>
       </c>
-      <c r="F13" t="s" s="269">
+      <c r="C13" t="s" s="270">
         <v>267</v>
       </c>
-      <c r="G13" t="s" s="270">
+      <c r="D13" t="s" s="271">
         <v>268</v>
       </c>
-      <c r="H13" t="s" s="271">
+      <c r="E13" t="s" s="272">
         <v>269</v>
       </c>
+      <c r="F13" t="s" s="273">
+        <v>270</v>
+      </c>
+      <c r="G13" t="s" s="274">
+        <v>271</v>
+      </c>
+      <c r="H13" t="s" s="275">
+        <v>272</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="272">
-        <v>270</v>
-      </c>
-      <c r="B14" t="s" s="273">
-        <v>271</v>
-      </c>
-      <c r="C14" t="s" s="274">
-        <v>272</v>
-      </c>
-      <c r="D14" t="s" s="275">
+      <c r="A14" t="s" s="276">
         <v>273</v>
       </c>
-      <c r="E14" t="s" s="276">
+      <c r="B14" t="s" s="277">
         <v>274</v>
       </c>
-      <c r="F14" t="s" s="277">
+      <c r="C14" t="s" s="278">
         <v>275</v>
       </c>
-      <c r="G14" t="s" s="278">
+      <c r="D14" t="s" s="279">
         <v>276</v>
       </c>
-      <c r="H14" t="s" s="279">
+      <c r="E14" t="s" s="280">
         <v>277</v>
       </c>
+      <c r="F14" t="s" s="281">
+        <v>278</v>
+      </c>
+      <c r="G14" t="s" s="282">
+        <v>279</v>
+      </c>
+      <c r="H14" t="s" s="283">
+        <v>280</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="280">
-        <v>278</v>
-      </c>
-      <c r="B15" t="s" s="281">
-        <v>279</v>
-      </c>
-      <c r="C15" t="s" s="282">
-        <v>280</v>
-      </c>
-      <c r="D15" t="s" s="283">
+      <c r="A15" t="s" s="284">
         <v>281</v>
       </c>
-      <c r="E15" t="s" s="284">
+      <c r="B15" t="s" s="285">
         <v>282</v>
       </c>
-      <c r="F15" t="s" s="285">
+      <c r="C15" t="s" s="286">
         <v>283</v>
       </c>
-      <c r="G15" t="s" s="286">
+      <c r="D15" t="s" s="287">
         <v>284</v>
       </c>
-      <c r="H15" t="s" s="287">
+      <c r="E15" t="s" s="288">
         <v>285</v>
       </c>
+      <c r="F15" t="s" s="289">
+        <v>286</v>
+      </c>
+      <c r="G15" t="s" s="290">
+        <v>287</v>
+      </c>
+      <c r="H15" t="s" s="291">
+        <v>288</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="288">
-        <v>286</v>
+      <c r="A17" t="s" s="292">
+        <v>289</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="289">
-        <v>287</v>
-      </c>
-      <c r="B18" t="s" s="290">
-        <v>288</v>
-      </c>
-      <c r="C18" t="s" s="291">
-        <v>289</v>
+      <c r="A18" t="s" s="293">
+        <v>290</v>
+      </c>
+      <c r="B18" t="s" s="294">
+        <v>291</v>
+      </c>
+      <c r="C18" t="s" s="295">
+        <v>292</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="292">
-        <v>290</v>
-      </c>
-      <c r="B19" t="s" s="293">
-        <v>291</v>
-      </c>
-      <c r="C19" t="s" s="294">
-        <v>292</v>
+      <c r="A19" t="s" s="296">
+        <v>293</v>
+      </c>
+      <c r="B19" t="s" s="297">
+        <v>294</v>
+      </c>
+      <c r="C19" t="s" s="298">
+        <v>295</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="295">
-        <v>293</v>
-      </c>
-      <c r="B20" t="s" s="296">
-        <v>294</v>
-      </c>
-      <c r="C20" t="s" s="297">
-        <v>295</v>
+      <c r="A20" t="s" s="299">
+        <v>296</v>
+      </c>
+      <c r="B20" t="s" s="300">
+        <v>297</v>
+      </c>
+      <c r="C20" t="s" s="301">
+        <v>298</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="298">
-        <v>296</v>
+      <c r="A22" t="s" s="302">
+        <v>299</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="299">
-        <v>297</v>
-      </c>
-      <c r="B23" t="s" s="300">
-        <v>298</v>
+      <c r="A23" t="s" s="303">
+        <v>300</v>
+      </c>
+      <c r="B23" t="s" s="304">
+        <v>301</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="301">
-        <v>299</v>
-      </c>
-      <c r="B24" t="s" s="302">
-        <v>300</v>
+      <c r="A24" t="s" s="305">
+        <v>302</v>
+      </c>
+      <c r="B24" t="s" s="306">
+        <v>303</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="303">
-        <v>301</v>
-      </c>
-      <c r="B25" t="s" s="304">
-        <v>302</v>
+      <c r="A25" t="s" s="307">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s" s="308">
+        <v>305</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="305">
-        <v>303</v>
-      </c>
-      <c r="B26" t="s" s="306">
-        <v>304</v>
+      <c r="A26" t="s" s="309">
+        <v>306</v>
+      </c>
+      <c r="B26" t="s" s="310">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5634,319 +6306,551 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="307">
-        <v>305</v>
+      <c r="A1" t="s" s="311">
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="308">
-        <v>307</v>
+      <c r="A4" t="s" s="312">
+        <v>310</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="309">
-        <v>308</v>
-      </c>
-      <c r="B5" t="s" s="310">
-        <v>309</v>
-      </c>
-      <c r="C5" t="s" s="311">
-        <v>310</v>
-      </c>
-      <c r="D5" t="s" s="312">
+      <c r="A5" t="s" s="313">
         <v>311</v>
       </c>
-      <c r="E5" t="s" s="313">
+      <c r="B5" t="s" s="314">
         <v>312</v>
       </c>
-      <c r="F5" t="s" s="314">
+      <c r="C5" t="s" s="315">
         <v>313</v>
       </c>
-      <c r="G5" t="s" s="315">
+      <c r="D5" t="s" s="316">
         <v>314</v>
       </c>
-      <c r="H5" t="s" s="316">
+      <c r="E5" t="s" s="317">
         <v>315</v>
       </c>
+      <c r="F5" t="s" s="318">
+        <v>316</v>
+      </c>
+      <c r="G5" t="s" s="319">
+        <v>317</v>
+      </c>
+      <c r="H5" t="s" s="320">
+        <v>318</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="317">
-        <v>316</v>
-      </c>
-      <c r="B6" t="s" s="318">
-        <v>317</v>
-      </c>
-      <c r="C6" t="s" s="319">
-        <v>318</v>
-      </c>
-      <c r="D6" t="s" s="320">
+      <c r="A6" t="s" s="321">
         <v>319</v>
       </c>
-      <c r="E6" t="s" s="321">
+      <c r="B6" t="s" s="322">
         <v>320</v>
       </c>
-      <c r="F6" t="s" s="322">
+      <c r="C6" t="s" s="323">
         <v>321</v>
       </c>
-      <c r="G6" t="s" s="323">
+      <c r="D6" t="s" s="324">
         <v>322</v>
       </c>
-      <c r="H6" t="s" s="324">
+      <c r="E6" t="s" s="325">
         <v>323</v>
       </c>
+      <c r="F6" t="s" s="326">
+        <v>324</v>
+      </c>
+      <c r="G6" t="s" s="327">
+        <v>325</v>
+      </c>
+      <c r="H6" t="s" s="328">
+        <v>326</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="325">
-        <v>324</v>
-      </c>
-      <c r="B7" t="s" s="326">
-        <v>325</v>
-      </c>
-      <c r="C7" t="s" s="327">
-        <v>326</v>
-      </c>
-      <c r="D7" t="s" s="328">
+      <c r="A7" t="s" s="329">
         <v>327</v>
       </c>
-      <c r="E7" t="s" s="329">
+      <c r="B7" t="s" s="330">
         <v>328</v>
       </c>
-      <c r="F7" t="s" s="330">
+      <c r="C7" t="s" s="331">
         <v>329</v>
       </c>
-      <c r="G7" t="s" s="331">
+      <c r="D7" t="s" s="332">
         <v>330</v>
       </c>
-      <c r="H7" t="s" s="332">
+      <c r="E7" t="s" s="333">
         <v>331</v>
       </c>
+      <c r="F7" t="s" s="334">
+        <v>332</v>
+      </c>
+      <c r="G7" t="s" s="335">
+        <v>333</v>
+      </c>
+      <c r="H7" t="s" s="336">
+        <v>334</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="333">
-        <v>332</v>
-      </c>
-      <c r="B8" t="s" s="334">
-        <v>333</v>
-      </c>
-      <c r="C8" t="s" s="335">
-        <v>334</v>
-      </c>
-      <c r="D8" t="s" s="336">
+      <c r="A8" t="s" s="337">
         <v>335</v>
       </c>
-      <c r="E8" t="s" s="337">
+      <c r="B8" t="s" s="338">
         <v>336</v>
       </c>
-      <c r="F8" t="s" s="338">
+      <c r="C8" t="s" s="339">
         <v>337</v>
       </c>
-      <c r="G8" t="s" s="339">
+      <c r="D8" t="s" s="340">
         <v>338</v>
       </c>
-      <c r="H8" t="s" s="340">
+      <c r="E8" t="s" s="341">
         <v>339</v>
       </c>
+      <c r="F8" t="s" s="342">
+        <v>340</v>
+      </c>
+      <c r="G8" t="s" s="343">
+        <v>341</v>
+      </c>
+      <c r="H8" t="s" s="344">
+        <v>342</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="341">
-        <v>340</v>
-      </c>
-      <c r="B9" t="s" s="342">
-        <v>341</v>
-      </c>
-      <c r="C9" t="s" s="343">
-        <v>342</v>
-      </c>
-      <c r="D9" t="s" s="344">
+      <c r="A9" t="s" s="345">
         <v>343</v>
       </c>
-      <c r="E9" t="s" s="345">
+      <c r="B9" t="s" s="346">
         <v>344</v>
       </c>
-      <c r="F9" t="s" s="346">
+      <c r="C9" t="s" s="347">
         <v>345</v>
       </c>
-      <c r="G9" t="s" s="347">
+      <c r="D9" t="s" s="348">
         <v>346</v>
       </c>
-      <c r="H9" t="s" s="348">
+      <c r="E9" t="s" s="349">
         <v>347</v>
       </c>
+      <c r="F9" t="s" s="350">
+        <v>348</v>
+      </c>
+      <c r="G9" t="s" s="351">
+        <v>349</v>
+      </c>
+      <c r="H9" t="s" s="352">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="353">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="354">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s" s="355">
+        <v>353</v>
+      </c>
+      <c r="C12" t="s" s="356">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="357">
+        <v>355</v>
+      </c>
+      <c r="B13" t="s" s="358">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s" s="359">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="360">
+        <v>358</v>
+      </c>
+      <c r="B14" t="s" s="361">
+        <v>359</v>
+      </c>
+      <c r="C14" t="s" s="362">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="363">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="364">
+        <v>362</v>
+      </c>
+      <c r="B17" t="s" s="365">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="366">
+        <v>364</v>
+      </c>
+      <c r="B18" t="s" s="367">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="368">
+        <v>366</v>
+      </c>
+      <c r="B19" t="s" s="369">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="370">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="372">
+        <v>371</v>
+      </c>
+      <c r="B5" t="s" s="373">
+        <v>372</v>
+      </c>
+      <c r="C5" t="s" s="374">
+        <v>373</v>
+      </c>
+      <c r="D5" t="s" s="375">
+        <v>374</v>
+      </c>
+      <c r="E5" t="s" s="376">
+        <v>375</v>
+      </c>
+      <c r="F5" t="s" s="377">
+        <v>376</v>
+      </c>
+      <c r="G5" t="s" s="378">
+        <v>377</v>
+      </c>
+      <c r="H5" t="s" s="379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="380">
+        <v>379</v>
+      </c>
+      <c r="B6" t="s" s="381">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s" s="382">
+        <v>381</v>
+      </c>
+      <c r="D6" t="s" s="383">
+        <v>382</v>
+      </c>
+      <c r="E6" t="s" s="384">
+        <v>383</v>
+      </c>
+      <c r="F6" t="s" s="385">
+        <v>384</v>
+      </c>
+      <c r="G6" t="s" s="386">
+        <v>385</v>
+      </c>
+      <c r="H6" t="s" s="387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="388">
+        <v>387</v>
+      </c>
+      <c r="B7" t="s" s="389">
+        <v>388</v>
+      </c>
+      <c r="C7" t="s" s="390">
+        <v>389</v>
+      </c>
+      <c r="D7" t="s" s="391">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s" s="392">
+        <v>391</v>
+      </c>
+      <c r="F7" t="s" s="393">
+        <v>392</v>
+      </c>
+      <c r="G7" t="s" s="394">
+        <v>393</v>
+      </c>
+      <c r="H7" t="s" s="395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="396">
+        <v>395</v>
+      </c>
+      <c r="B8" t="s" s="397">
+        <v>396</v>
+      </c>
+      <c r="C8" t="s" s="398">
+        <v>397</v>
+      </c>
+      <c r="D8" t="s" s="399">
+        <v>398</v>
+      </c>
+      <c r="E8" t="s" s="400">
+        <v>399</v>
+      </c>
+      <c r="F8" t="s" s="401">
+        <v>400</v>
+      </c>
+      <c r="G8" t="s" s="402">
+        <v>401</v>
+      </c>
+      <c r="H8" t="s" s="403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="404">
+        <v>403</v>
+      </c>
+      <c r="B9" t="s" s="405">
+        <v>404</v>
+      </c>
+      <c r="C9" t="s" s="406">
+        <v>405</v>
+      </c>
+      <c r="D9" t="s" s="407">
+        <v>406</v>
+      </c>
+      <c r="E9" t="s" s="408">
+        <v>407</v>
+      </c>
+      <c r="F9" t="s" s="409">
+        <v>408</v>
+      </c>
+      <c r="G9" t="s" s="410">
+        <v>409</v>
+      </c>
+      <c r="H9" t="s" s="411">
+        <v>410</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="349">
-        <v>348</v>
-      </c>
-      <c r="B10" t="s" s="350">
-        <v>349</v>
-      </c>
-      <c r="C10" t="s" s="351">
-        <v>350</v>
-      </c>
-      <c r="D10" t="s" s="352">
-        <v>351</v>
-      </c>
-      <c r="E10" t="s" s="353">
-        <v>352</v>
-      </c>
-      <c r="F10" t="s" s="354">
-        <v>353</v>
-      </c>
-      <c r="G10" t="s" s="355">
-        <v>354</v>
-      </c>
-      <c r="H10" t="s" s="356">
-        <v>355</v>
+      <c r="A10" t="s" s="412">
+        <v>411</v>
+      </c>
+      <c r="B10" t="s" s="413">
+        <v>412</v>
+      </c>
+      <c r="C10" t="s" s="414">
+        <v>413</v>
+      </c>
+      <c r="D10" t="s" s="415">
+        <v>414</v>
+      </c>
+      <c r="E10" t="s" s="416">
+        <v>415</v>
+      </c>
+      <c r="F10" t="s" s="417">
+        <v>416</v>
+      </c>
+      <c r="G10" t="s" s="418">
+        <v>417</v>
+      </c>
+      <c r="H10" t="s" s="419">
+        <v>418</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="357">
-        <v>356</v>
-      </c>
-      <c r="B11" t="s" s="358">
-        <v>357</v>
-      </c>
-      <c r="C11" t="s" s="359">
-        <v>358</v>
-      </c>
-      <c r="D11" t="s" s="360">
-        <v>359</v>
-      </c>
-      <c r="E11" t="s" s="361">
-        <v>360</v>
-      </c>
-      <c r="F11" t="s" s="362">
-        <v>361</v>
-      </c>
-      <c r="G11" t="s" s="363">
-        <v>362</v>
-      </c>
-      <c r="H11" t="s" s="364">
-        <v>363</v>
+      <c r="A11" t="s" s="420">
+        <v>419</v>
+      </c>
+      <c r="B11" t="s" s="421">
+        <v>420</v>
+      </c>
+      <c r="C11" t="s" s="422">
+        <v>421</v>
+      </c>
+      <c r="D11" t="s" s="423">
+        <v>422</v>
+      </c>
+      <c r="E11" t="s" s="424">
+        <v>423</v>
+      </c>
+      <c r="F11" t="s" s="425">
+        <v>424</v>
+      </c>
+      <c r="G11" t="s" s="426">
+        <v>425</v>
+      </c>
+      <c r="H11" t="s" s="427">
+        <v>426</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="365">
-        <v>364</v>
-      </c>
-      <c r="B12" t="s" s="366">
-        <v>365</v>
-      </c>
-      <c r="C12" t="s" s="367">
-        <v>366</v>
-      </c>
-      <c r="D12" t="s" s="368">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s" s="369">
-        <v>368</v>
-      </c>
-      <c r="F12" t="s" s="370">
-        <v>369</v>
-      </c>
-      <c r="G12" t="s" s="371">
-        <v>370</v>
-      </c>
-      <c r="H12" t="s" s="372">
-        <v>371</v>
+      <c r="A12" t="s" s="428">
+        <v>427</v>
+      </c>
+      <c r="B12" t="s" s="429">
+        <v>428</v>
+      </c>
+      <c r="C12" t="s" s="430">
+        <v>429</v>
+      </c>
+      <c r="D12" t="s" s="431">
+        <v>430</v>
+      </c>
+      <c r="E12" t="s" s="432">
+        <v>431</v>
+      </c>
+      <c r="F12" t="s" s="433">
+        <v>432</v>
+      </c>
+      <c r="G12" t="s" s="434">
+        <v>433</v>
+      </c>
+      <c r="H12" t="s" s="435">
+        <v>434</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="373">
-        <v>372</v>
-      </c>
-      <c r="B13" t="s" s="374">
-        <v>373</v>
-      </c>
-      <c r="C13" t="s" s="375">
-        <v>374</v>
-      </c>
-      <c r="D13" t="s" s="376">
-        <v>375</v>
-      </c>
-      <c r="E13" t="s" s="377">
-        <v>376</v>
-      </c>
-      <c r="F13" t="s" s="378">
-        <v>377</v>
-      </c>
-      <c r="G13" t="s" s="379">
-        <v>378</v>
-      </c>
-      <c r="H13" t="s" s="380">
-        <v>379</v>
+      <c r="A13" t="s" s="436">
+        <v>435</v>
+      </c>
+      <c r="B13" t="s" s="437">
+        <v>436</v>
+      </c>
+      <c r="C13" t="s" s="438">
+        <v>437</v>
+      </c>
+      <c r="D13" t="s" s="439">
+        <v>438</v>
+      </c>
+      <c r="E13" t="s" s="440">
+        <v>439</v>
+      </c>
+      <c r="F13" t="s" s="441">
+        <v>440</v>
+      </c>
+      <c r="G13" t="s" s="442">
+        <v>441</v>
+      </c>
+      <c r="H13" t="s" s="443">
+        <v>442</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="381">
-        <v>380</v>
+      <c r="A15" t="s" s="444">
+        <v>443</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="382">
-        <v>381</v>
-      </c>
-      <c r="B16" t="s" s="383">
-        <v>382</v>
-      </c>
-      <c r="C16" t="s" s="384">
-        <v>383</v>
+      <c r="A16" t="s" s="445">
+        <v>444</v>
+      </c>
+      <c r="B16" t="s" s="446">
+        <v>445</v>
+      </c>
+      <c r="C16" t="s" s="447">
+        <v>446</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="385">
-        <v>384</v>
-      </c>
-      <c r="B17" t="s" s="386">
-        <v>385</v>
-      </c>
-      <c r="C17" t="s" s="387">
-        <v>386</v>
+      <c r="A17" t="s" s="448">
+        <v>447</v>
+      </c>
+      <c r="B17" t="s" s="449">
+        <v>448</v>
+      </c>
+      <c r="C17" t="s" s="450">
+        <v>449</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="388">
-        <v>387</v>
-      </c>
-      <c r="B18" t="s" s="389">
-        <v>388</v>
-      </c>
-      <c r="C18" t="s" s="390">
-        <v>389</v>
+      <c r="A18" t="s" s="451">
+        <v>450</v>
+      </c>
+      <c r="B18" t="s" s="452">
+        <v>451</v>
+      </c>
+      <c r="C18" t="s" s="453">
+        <v>452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="391">
-        <v>390</v>
+      <c r="A20" t="s" s="454">
+        <v>453</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="392">
-        <v>391</v>
-      </c>
-      <c r="B21" t="s" s="393">
-        <v>392</v>
+      <c r="A21" t="s" s="455">
+        <v>454</v>
+      </c>
+      <c r="B21" t="s" s="456">
+        <v>455</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="394">
-        <v>393</v>
-      </c>
-      <c r="B22" t="s" s="395">
-        <v>394</v>
+      <c r="A22" t="s" s="457">
+        <v>456</v>
+      </c>
+      <c r="B22" t="s" s="458">
+        <v>457</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="396">
-        <v>395</v>
-      </c>
-      <c r="B23" t="s" s="397">
-        <v>396</v>
+      <c r="A23" t="s" s="459">
+        <v>458</v>
+      </c>
+      <c r="B23" t="s" s="460">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
